--- a/GitMaven/DataPoolSheet.xlsx
+++ b/GitMaven/DataPoolSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="3675"/>
   </bookViews>
   <sheets>
     <sheet name="AppLaunch" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,8 @@
     <sheet name="Xpaths" sheetId="7" r:id="rId6"/>
     <sheet name="Verifications" sheetId="11" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -535,7 +536,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/GitMaven/DataPoolSheet.xlsx
+++ b/GitMaven/DataPoolSheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="3675"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14205" windowHeight="3675" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="AppLaunch" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="Verifications" sheetId="11" r:id="rId7"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:C10"/>
 </workbook>
 </file>
 
@@ -71,9 +71,6 @@
     <t>RefKey_Xpath</t>
   </si>
   <si>
-    <t>.//*[@id='username']</t>
-  </si>
-  <si>
     <t>.//*[@name='password']</t>
   </si>
   <si>
@@ -114,6 +111,9 @@
   </si>
   <si>
     <t>sauser</t>
+  </si>
+  <si>
+    <t>.//*[@id='username1']</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -652,13 +652,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -695,7 +695,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -727,7 +727,7 @@
         <v>15</v>
       </c>
       <c r="C1" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -735,10 +735,10 @@
         <v>2</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -750,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,57 +774,57 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="11" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="11" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" s="11" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -901,18 +901,18 @@
         <v>4</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
